--- a/個人課表/T1234563.xlsx
+++ b/個人課表/T1234563.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151B974-1496-4E3E-9A3F-D9509BF57A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BADB0A-5609-4911-8443-F76B4F24652A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="190" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +81,6 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軟體工程</t>
-  </si>
-  <si>
-    <t>醫學倫理</t>
-  </si>
-  <si>
-    <t>資訊安全</t>
   </si>
 </sst>
 </file>
@@ -140,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,11 +139,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -160,6 +166,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -442,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -468,30 +477,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
+      <c r="F4" s="5">
+        <v>1759</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -505,41 +514,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
+      <c r="B8" s="5">
+        <v>2986</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3641</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
+      <c r="B9" s="5">
+        <v>2986</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3641</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>

--- a/個人課表/T1234563.xlsx
+++ b/個人課表/T1234563.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BADB0A-5609-4911-8443-F76B4F24652A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52024563-54F1-40D4-B8BA-9FBD477E9CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="380" windowWidth="6810" windowHeight="9610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
